--- a/biology/Zoologie/Cretatriacanthidae/Cretatriacanthidae.xlsx
+++ b/biology/Zoologie/Cretatriacanthidae/Cretatriacanthidae.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Les Cretatriacanthidae constituent une famille fossile de poissons à nageoires rayonnées de l’ordre des Tetraodontiformes qui ont vécu au cours du Crétacé supérieur.
 </t>
@@ -511,9 +523,11 @@
           <t>Classification</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les Cretatriacanthidae font partie, avec les familles Plectocretacicidae et Protriacanthidae, de la super-famille des Plectocretacicoidea, toutes créées en 1996 par James C. Tyler (d) et Lorenzo Sorbini (d)[1],[2].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les Cretatriacanthidae font partie, avec les familles Plectocretacicidae et Protriacanthidae, de la super-famille des Plectocretacicoidea, toutes créées en 1996 par James C. Tyler (d) et Lorenzo Sorbini (d),.
 </t>
         </is>
       </c>
@@ -542,12 +556,14 @@
           <t>Liste des genres</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Deux genres sont connus :
-† Cretatriacanthus Tyler &amp; Sorbini, 1996[3]
+† Cretatriacanthus Tyler &amp; Sorbini, 1996
 † Slovenitriacanthus Tyler &amp; Križnar, 2013
-espèce † Slovenitriacanthus saksidai[4]</t>
+espèce † Slovenitriacanthus saksidai</t>
         </is>
       </c>
     </row>
